--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Desktop\MC-Deko 🐱‍🐉\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\GitHub\MCMOD-RedTec\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="DE Aktuell" sheetId="1" r:id="rId1"/>
+    <sheet name="DE Übersicht" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>polldate</t>
   </si>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,8 +1136,8 @@
         <v>2.75</v>
       </c>
       <c r="C2" s="40">
-        <f ca="1">ROUND(Tabelle2!C2, 2)</f>
-        <v>30.53</v>
+        <f ca="1">ROUND('DE Übersicht'!C2, 2)</f>
+        <v>30.42</v>
       </c>
       <c r="D2" s="40">
         <f ca="1">IF(C2&lt;5, 6-C2, 0)</f>
@@ -1146,7 +1146,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="40">
         <f ca="1">C2-G2</f>
-        <v>6.3900000000000006</v>
+        <v>6.2800000000000011</v>
       </c>
       <c r="G2" s="40">
         <v>24.14</v>
@@ -1160,8 +1160,8 @@
         <v>2.75</v>
       </c>
       <c r="C3" s="6">
-        <f ca="1">ROUND(Tabelle2!F2, 2)</f>
-        <v>20.32</v>
+        <f ca="1">ROUND('DE Übersicht'!F2, 2)</f>
+        <v>20.38</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D12" ca="1" si="0">IF(C3&lt;5, 6-C3, 0)</f>
@@ -1170,7 +1170,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F12" ca="1" si="1">C3-G3</f>
-        <v>9.93</v>
+        <v>9.9899999999999984</v>
       </c>
       <c r="G3" s="6">
         <v>10.39</v>
@@ -1184,8 +1184,8 @@
         <v>2.75</v>
       </c>
       <c r="C4" s="6">
-        <f ca="1">ROUND(Tabelle2!B2, 2)</f>
-        <v>16.440000000000001</v>
+        <f ca="1">ROUND('DE Übersicht'!B2, 2)</f>
+        <v>16.47</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -1194,7 +1194,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.27</v>
+        <v>-9.240000000000002</v>
       </c>
       <c r="G4" s="6">
         <v>25.71</v>
@@ -1208,8 +1208,8 @@
         <v>2.75</v>
       </c>
       <c r="C5" s="6">
-        <f ca="1">ROUND(Tabelle2!D2, 2)</f>
-        <v>13.74</v>
+        <f ca="1">ROUND('DE Übersicht'!D2, 2)</f>
+        <v>13.75</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -1218,7 +1218,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.98000000000000043</v>
+        <v>-0.97000000000000064</v>
       </c>
       <c r="G5" s="6">
         <v>14.72</v>
@@ -1232,17 +1232,17 @@
         <v>2.75</v>
       </c>
       <c r="C6" s="6">
-        <f ca="1">ROUND(Tabelle2!I2, 2)</f>
-        <v>4.74</v>
+        <f ca="1">ROUND('DE Übersicht'!I2, 2)</f>
+        <v>4.7300000000000004</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2599999999999998</v>
+        <v>1.2699999999999996</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.74</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -1254,17 +1254,17 @@
         <v>2.75</v>
       </c>
       <c r="C7" s="6">
-        <f ca="1">ROUND(Tabelle2!G2, 2)</f>
-        <v>4.09</v>
+        <f ca="1">ROUND('DE Übersicht'!G2, 2)</f>
+        <v>4.05</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9100000000000001</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.78000000000000025</v>
+        <v>-0.82000000000000028</v>
       </c>
       <c r="G7" s="6">
         <v>4.87</v>
@@ -1278,17 +1278,17 @@
         <v>2.75</v>
       </c>
       <c r="C8" s="6">
-        <f ca="1">ROUND(Tabelle2!E2, 2)</f>
-        <v>4.13</v>
+        <f ca="1">ROUND('DE Übersicht'!E2, 2)</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.87</v>
+        <v>1.9000000000000004</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3</v>
+        <v>-7.33</v>
       </c>
       <c r="G8" s="6">
         <v>11.43</v>
@@ -1302,17 +1302,17 @@
         <v>2.75</v>
       </c>
       <c r="C9" s="6">
-        <f ca="1">IF(Tabelle2!H2&lt;&gt;0, ROUND(Tabelle2!H2, 2), 1.5)</f>
-        <v>2</v>
+        <f ca="1">IF('DE Übersicht'!H2&lt;&gt;0, ROUND('DE Übersicht'!H2, 2), 1.5)</f>
+        <v>1.67</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.43000000000000016</v>
+        <v>-0.76000000000000023</v>
       </c>
       <c r="G9" s="6">
         <v>2.4300000000000002</v>
@@ -1373,48 +1373,24 @@
       </c>
       <c r="C12" s="40">
         <f ca="1">100-SUM(C2:C11)</f>
-        <v>2.4300000000000068</v>
+        <v>2.8500000000000085</v>
       </c>
       <c r="D12" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5699999999999932</v>
+        <v>3.1499999999999915</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="40">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.2999999999999687</v>
+        <v>-1.879999999999967</v>
       </c>
       <c r="G12" s="40">
         <v>4.7299999999999756</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C10">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="5"/>
         <cfvo type="num" val="5"/>
@@ -1424,11 +1400,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.1"/>
         <cfvo type="num" val="0.1"/>
         <color rgb="FFF8696B"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -1438,33 +1426,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{2887692D-F735-4FD5-B054-D7237E7CF62A}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="6" id="{B7DE53AD-A475-4C42-9F58-9A0541E83367}">
-            <x14:iconSet iconSet="3Triangles">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>40</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>60</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="4" id="{EBEB0C23-4969-4F4F-9F7F-4A7A1145D998}">
+          <x14:cfRule type="iconSet" priority="1" id="{8D4ED5B1-E70D-442D-BB79-812D80E33380}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -1472,7 +1434,7 @@
               <x14:cfvo type="num" gte="0">
                 <xm:f>-1</xm:f>
               </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
+              <x14:cfvo type="num">
                 <xm:f>1</xm:f>
               </x14:cfvo>
             </x14:iconSet>
@@ -1487,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,40 +1517,40 @@
         <v>45682</v>
       </c>
       <c r="B2" s="27">
-        <f ca="1">SUMPRODUCT(B4:B17,O4:O17)/B3</f>
-        <v>16.438940397350994</v>
+        <f ca="1">SUMPRODUCT(B4:B18,O4:O18)/B3</f>
+        <v>16.468506900878292</v>
       </c>
       <c r="C2" s="27">
-        <f ca="1">SUMPRODUCT(C4:C17,O4:O17)/C3</f>
-        <v>30.530331125827811</v>
+        <f ca="1">SUMPRODUCT(C4:C18,O4:O18)/C3</f>
+        <v>30.423337515683805</v>
       </c>
       <c r="D2" s="27">
-        <f ca="1">SUMPRODUCT(D4:D17,O4:O17)/D3</f>
-        <v>13.736688741721853</v>
+        <f ca="1">SUMPRODUCT(D4:D18,O4:O18)/D3</f>
+        <v>13.750564617314931</v>
       </c>
       <c r="E2" s="27">
-        <f ca="1">SUMPRODUCT(E4:E17,O4:O17)/E3</f>
-        <v>4.1335099337748344</v>
+        <f ca="1">SUMPRODUCT(E4:E18,O4:O18)/E3</f>
+        <v>4.1001254705144285</v>
       </c>
       <c r="F2" s="27">
-        <f ca="1">SUMPRODUCT(F4:F17,O4:O17)/F3</f>
-        <v>20.317615894039736</v>
+        <f ca="1">SUMPRODUCT(F4:F18,O4:O18)/F3</f>
+        <v>20.379924717691342</v>
       </c>
       <c r="G2" s="27">
-        <f ca="1">SUMPRODUCT(G4:G17,O4:O17)/G3</f>
-        <v>4.0902527075812269</v>
+        <f ca="1">SUMPRODUCT(G4:G18,O4:O18)/G3</f>
+        <v>4.0521952717224439</v>
       </c>
       <c r="H2" s="27">
-        <f ca="1">IF(H3&lt;&gt;0, SUMPRODUCT(H4:H17,O4:O17)/H3, 0)</f>
-        <v>2</v>
+        <f ca="1">IF(H3&lt;&gt;0, SUMPRODUCT(H4:H18,O4:O18)/H3, 0)</f>
+        <v>1.6739130434782608</v>
       </c>
       <c r="I2" s="27">
-        <f ca="1">SUMPRODUCT(I4:I17,O4:O17)/I3</f>
-        <v>4.7393377483443695</v>
+        <f ca="1">SUMPRODUCT(I4:I18,O4:O18)/I3</f>
+        <v>4.7267252195733986</v>
       </c>
       <c r="J2" s="25">
         <f ca="1">100-SUM(B2:I2)</f>
-        <v>4.0133234513591844</v>
+        <v>4.4247072431431036</v>
       </c>
       <c r="K2" s="21">
         <f ca="1">SUM(B2:J2)</f>
@@ -1598,11 +1560,11 @@
         <v>21</v>
       </c>
       <c r="M2" s="10">
-        <f ca="1">SUMPRODUCT(M4:M17,O4:O17)/M3</f>
-        <v>3.4868874172185427</v>
+        <f ca="1">SUMPRODUCT(M4:M18,O4:O18)/M3</f>
+        <v>3.3558343789209526</v>
       </c>
       <c r="N2" s="10">
-        <f ca="1">SUMPRODUCT(N4:N17,O4:O17)/N3</f>
+        <f ca="1">SUMPRODUCT(N4:N18,O4:O18)/N3</f>
         <v>3.9446357615894034</v>
       </c>
       <c r="O2" s="11"/>
@@ -1610,46 +1572,46 @@
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="37">
-        <f ca="1">SUMIF(B4:B17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(B4:B18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="C3" s="37">
-        <f ca="1">SUMIF(C4:C17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(C4:C18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="D3" s="37">
-        <f ca="1">SUMIF(D4:D17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(D4:D18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="E3" s="37">
-        <f ca="1">SUMIF(E4:E17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(E4:E18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="F3" s="37">
-        <f ca="1">SUMIF(F4:F17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(F4:F18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="G3" s="37">
-        <f ca="1">SUMIF(G4:G17, "&gt;0", O4:O17)</f>
-        <v>14.509523809523811</v>
+        <f ca="1">SUMIF(G4:G18, "&gt;0", O4:O18)</f>
+        <v>15.509523809523811</v>
       </c>
       <c r="H3" s="37">
-        <f ca="1">SUMIF(H4:H17, "&gt;0", O4:O17)</f>
-        <v>0.53333333333333333</v>
+        <f ca="1">SUMIF(H4:H18, "&gt;0", O4:O18)</f>
+        <v>1.5333333333333332</v>
       </c>
       <c r="I3" s="37">
-        <f ca="1">SUMIF(I4:I17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(I4:I18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="22"/>
       <c r="L3" s="9"/>
       <c r="M3" s="54">
-        <f ca="1">SUMIF(M4:M17, "&gt;0", O4:O17)</f>
-        <v>17.976190476190478</v>
+        <f ca="1">SUMIF(M4:M18, "&gt;0", O4:O18)</f>
+        <v>18.976190476190482</v>
       </c>
       <c r="N3" s="54">
-        <f ca="1">SUMIF(N4:N17, "&gt;0", O4:O17)</f>
+        <f ca="1">SUMIF(N4:N18, "&gt;0", O4:O18)</f>
         <v>17.976190476190478</v>
       </c>
       <c r="O3" s="9"/>
@@ -1666,7 +1628,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="20"/>
       <c r="K4" s="22">
-        <f t="shared" ref="K4:K5" si="0">SUM(B4:J4)</f>
+        <f t="shared" ref="K4" si="0">SUM(B4:J4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="55"/>
@@ -1675,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="12">
-        <f t="shared" ref="N4:N5" ca="1" si="1">IF(A4&lt;&gt;0, TODAY()-A4, 0)</f>
+        <f t="shared" ref="N4" ca="1" si="1">IF(A4&lt;&gt;0, TODAY()-A4, 0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="13">
-        <f t="shared" ref="O4:O5" ca="1" si="2">IF(N4&gt;14, 0, M4*(1-(N4/14)))</f>
+        <f t="shared" ref="O4" ca="1" si="2">IF(N4&gt;14, 0, M4*(1-(N4/14)))</f>
         <v>0</v>
       </c>
     </row>
@@ -1700,188 +1662,189 @@
       <c r="N5" s="24"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>45681</v>
+        <v>45682</v>
       </c>
       <c r="B6" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="16">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="D6" s="16">
         <v>14</v>
       </c>
       <c r="E6" s="16">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F6" s="16">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="G6" s="16">
-        <v>5</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>3.5</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.5</v>
+      </c>
       <c r="I6" s="16">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J6" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K6" s="23">
         <f>SUM(B6:J6)</f>
         <v>100</v>
       </c>
-      <c r="L6" s="57" t="s">
-        <v>15</v>
+      <c r="L6" s="56" t="s">
+        <v>20</v>
       </c>
       <c r="M6" s="24">
         <f>IF(L6="Wahlkreisprognose", 1, IF(L6="INSA", 2, IF(L6="YouGov", 3, IF(L6="Forsa", 3, IF(L6="Allensbach", 4, IF(L6="Verian", 4, IF(L6="GMS", 4, IF(L6="Ipsos", 5, IF(L6="Infratest dimap", 5, IF(L6="FG Wahlen", 5, IF(L6="", 0)))))))))))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" s="24">
         <f ca="1">IF(A6&lt;&gt;0, TODAY()-A6, 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="18">
         <f ca="1">IF(N6&gt;14, 0, M6*(1-(N6/14)))</f>
-        <v>4.6428571428571432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B7" s="16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="16">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="E7" s="16">
         <v>4</v>
       </c>
       <c r="F7" s="16">
-        <v>20</v>
-      </c>
-      <c r="G7" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16">
+        <v>3</v>
+      </c>
+      <c r="J7" s="17">
+        <v>8</v>
+      </c>
+      <c r="K7" s="23">
+        <f>SUM(B7:J7)</f>
+        <v>100</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="24">
+        <f>IF(L7="Wahlkreisprognose", 1, IF(L7="INSA", 2, IF(L7="YouGov", 3, IF(L7="Forsa", 3, IF(L7="Allensbach", 4, IF(L7="Verian", 4, IF(L7="GMS", 4, IF(L7="Ipsos", 5, IF(L7="Infratest dimap", 5, IF(L7="FG Wahlen", 5, IF(L7="", 0)))))))))))</f>
         <v>5</v>
       </c>
-      <c r="J7" s="17">
-        <v>6.5</v>
-      </c>
-      <c r="K7" s="23">
-        <f t="shared" ref="K7:K17" si="3">SUM(B7:J7)</f>
-        <v>100</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:M17" si="4">IF(L7="Wahlkreisprognose", 1, IF(L7="INSA", 2, IF(L7="YouGov", 3, IF(L7="Forsa", 3, IF(L7="Allensbach", 4, IF(L7="Verian", 4, IF(L7="GMS", 4, IF(L7="Ipsos", 5, IF(L7="Infratest dimap", 5, IF(L7="FG Wahlen", 5, IF(L7="", 0)))))))))))</f>
-        <v>4</v>
-      </c>
       <c r="N7" s="24">
-        <f t="shared" ref="N7:N17" ca="1" si="5">IF(A7&lt;&gt;0, TODAY()-A7, 0)</f>
-        <v>2</v>
+        <f ca="1">IF(A7&lt;&gt;0, TODAY()-A7, 0)</f>
+        <v>1</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" ref="O7:O13" ca="1" si="6">IF(N7&gt;14, 0, M7*(1-(N7/15)))</f>
-        <v>3.4666666666666668</v>
-      </c>
-      <c r="P7" s="2"/>
+        <f ca="1">IF(N7&gt;14, 0, M7*(1-(N7/14)))</f>
+        <v>4.6428571428571432</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B8" s="16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="16">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" s="16">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="E8" s="16">
         <v>4</v>
       </c>
       <c r="F8" s="16">
-        <v>19</v>
-      </c>
-      <c r="G8" s="16">
-        <v>4</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16">
+        <v>5</v>
+      </c>
+      <c r="J8" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" ref="K8:K18" si="3">SUM(B8:J8)</f>
+        <v>100</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="24">
+        <f t="shared" ref="M8:M18" si="4">IF(L8="Wahlkreisprognose", 1, IF(L8="INSA", 2, IF(L8="YouGov", 3, IF(L8="Forsa", 3, IF(L8="Allensbach", 4, IF(L8="Verian", 4, IF(L8="GMS", 4, IF(L8="Ipsos", 5, IF(L8="Infratest dimap", 5, IF(L8="FG Wahlen", 5, IF(L8="", 0)))))))))))</f>
+        <v>4</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" ref="N8:N18" ca="1" si="5">IF(A8&lt;&gt;0, TODAY()-A8, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" ref="O8:O14" ca="1" si="6">IF(N8&gt;14, 0, M8*(1-(N8/15)))</f>
+        <v>3.4666666666666668</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>45679</v>
+      </c>
+      <c r="B9" s="16">
+        <v>19</v>
+      </c>
+      <c r="C9" s="16">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16">
+        <v>15</v>
+      </c>
+      <c r="E9" s="16">
+        <v>4</v>
+      </c>
+      <c r="F9" s="16">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16">
         <v>6</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>6</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K9" s="23">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L9" s="57" t="s">
         <v>17</v>
-      </c>
-      <c r="M8" s="24">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="N8" s="24">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" ca="1" si="6"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>45678</v>
-      </c>
-      <c r="B9" s="16">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16">
-        <v>31</v>
-      </c>
-      <c r="D9" s="16">
-        <v>13</v>
-      </c>
-      <c r="E9" s="16">
-        <v>4</v>
-      </c>
-      <c r="F9" s="16">
-        <v>19</v>
-      </c>
-      <c r="G9" s="16">
-        <v>3</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
-        <v>4</v>
-      </c>
-      <c r="J9" s="17">
-        <v>10</v>
-      </c>
-      <c r="K9" s="23">
-        <f>SUM(B9:J9)</f>
-        <v>100</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>18</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" si="4"/>
@@ -1889,67 +1852,67 @@
       </c>
       <c r="N9" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2000000000000002</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B10" s="16">
         <v>16</v>
       </c>
       <c r="C10" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="16">
         <v>13</v>
       </c>
       <c r="E10" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="16">
-        <v>21.5</v>
+        <v>19</v>
       </c>
       <c r="G10" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J10" s="17">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="23">
-        <f t="shared" si="3"/>
+        <f>SUM(B10:J10)</f>
         <v>100</v>
       </c>
       <c r="L10" s="57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3333333333333335</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
-        <v>45675</v>
+        <v>45677</v>
       </c>
       <c r="B11" s="16">
         <v>16</v>
@@ -1964,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="16">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="G11" s="16">
         <v>4</v>
@@ -1974,7 +1937,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="17">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K11" s="23">
         <f t="shared" si="3"/>
@@ -1989,11 +1952,11 @@
       </c>
       <c r="N11" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O11" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0666666666666667</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="P11" s="2"/>
     </row>
@@ -2002,16 +1965,16 @@
         <v>45675</v>
       </c>
       <c r="B12" s="16">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="C12" s="16">
         <v>29</v>
       </c>
       <c r="D12" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="16">
         <v>21</v>
@@ -2019,23 +1982,23 @@
       <c r="G12" s="16">
         <v>4</v>
       </c>
-      <c r="H12" s="16">
-        <v>2</v>
-      </c>
+      <c r="H12" s="16"/>
       <c r="I12" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="J12" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="J12" s="17">
+        <v>5</v>
+      </c>
       <c r="K12" s="23">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L12" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="24">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" ca="1" si="5"/>
@@ -2043,22 +2006,22 @@
       </c>
       <c r="O12" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53333333333333333</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="B13" s="16">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="C13" s="16">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" s="16">
         <v>4</v>
@@ -2069,69 +2032,71 @@
       <c r="G13" s="16">
         <v>4</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16">
+        <v>2</v>
+      </c>
       <c r="I13" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="17">
         <v>6</v>
-      </c>
-      <c r="J13" s="17">
-        <v>5</v>
       </c>
       <c r="K13" s="23">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L13" s="57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M13" s="24">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O13" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B14" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="16">
         <v>4</v>
       </c>
       <c r="F14" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K14" s="23">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="24">
         <f t="shared" si="4"/>
@@ -2139,20 +2104,20 @@
       </c>
       <c r="N14" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" s="18">
-        <f t="shared" ref="O14:O17" ca="1" si="7">IF(N14&gt;14, 0, M14*(1-(N14/15)))</f>
-        <v>0.80000000000000016</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B15" s="16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="16">
         <v>31</v>
@@ -2164,48 +2129,48 @@
         <v>4</v>
       </c>
       <c r="F15" s="16">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="16">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K15" s="23">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L15" s="57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="24">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15" s="18">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" ref="O15:O18" ca="1" si="7">IF(N15&gt;14, 0, M15*(1-(N15/15)))</f>
+        <v>0.80000000000000016</v>
       </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
-        <v>45668</v>
+        <v>45670</v>
       </c>
       <c r="B16" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="16">
         <v>13</v>
@@ -2217,14 +2182,14 @@
         <v>22</v>
       </c>
       <c r="G16" s="16">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J16" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K16" s="23">
         <f t="shared" si="3"/>
@@ -2239,63 +2204,113 @@
       </c>
       <c r="N16" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.1333333333333333</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
-        <v>45667</v>
+        <v>45668</v>
       </c>
       <c r="B17" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="16">
         <v>30</v>
       </c>
       <c r="D17" s="16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16">
         <v>4</v>
       </c>
       <c r="F17" s="16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K17" s="23">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="L17" s="57" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M17" s="24">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" ca="1" si="7"/>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>45667</v>
+      </c>
+      <c r="B18" s="16">
+        <v>14</v>
+      </c>
+      <c r="C18" s="16">
+        <v>30</v>
+      </c>
+      <c r="D18" s="16">
+        <v>15</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4</v>
+      </c>
+      <c r="F18" s="16">
+        <v>21</v>
+      </c>
+      <c r="G18" s="16">
+        <v>4</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16">
+        <v>4</v>
+      </c>
+      <c r="J18" s="17">
+        <v>8</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="24">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="24">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760"/>
   </bookViews>
   <sheets>
     <sheet name="DE Aktuell" sheetId="1" r:id="rId1"/>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="6">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">C6-G6</f>
         <v>4.7300000000000004</v>
       </c>
       <c r="G6" s="6"/>
@@ -1282,12 +1282,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IF(C8&lt;5, 6-C8, 0)</f>
         <v>1.9000000000000004</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="6">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">C8-G8</f>
         <v>-7.33</v>
       </c>
       <c r="G8" s="6">
@@ -1451,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
